--- a/Participation/R/output/OOS_results_sdm_variation.xlsx
+++ b/Participation/R/output/OOS_results_sdm_variation.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,15 +390,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>LL_null_test</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pseudoR2_oos</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>LL_test_perElem</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>LL_test_perIndiv</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>nIndiv_test</t>
         </is>
@@ -428,12 +438,18 @@
         <v>-5150.236795469219</v>
       </c>
       <c r="G2">
+        <v>-17483.98940416071</v>
+      </c>
+      <c r="H2">
+        <v>0.7054312561958196</v>
+      </c>
+      <c r="I2">
         <v>-0.7876184119084293</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-122.62468560641</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>42</v>
       </c>
     </row>
@@ -461,12 +477,18 @@
         <v>-5158.699433625065</v>
       </c>
       <c r="G3">
+        <v>-17483.98940416071</v>
+      </c>
+      <c r="H3">
+        <v>0.7049472340450265</v>
+      </c>
+      <c r="I3">
         <v>-0.7889125911645611</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>-122.826176991073</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>42</v>
       </c>
     </row>
@@ -494,12 +516,18 @@
         <v>-5200.884698081102</v>
       </c>
       <c r="G4">
+        <v>-17483.98940416071</v>
+      </c>
+      <c r="H4">
+        <v>0.7025344400607201</v>
+      </c>
+      <c r="I4">
         <v>-0.7953639238539688</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>-123.8305880495501</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>42</v>
       </c>
     </row>
@@ -527,12 +555,18 @@
         <v>-5219.185857021037</v>
       </c>
       <c r="G5">
+        <v>-17483.98940416071</v>
+      </c>
+      <c r="H5">
+        <v>0.7014877018983428</v>
+      </c>
+      <c r="I5">
         <v>-0.7981626941460525</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>-124.2663299290723</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>42</v>
       </c>
     </row>
@@ -560,12 +594,18 @@
         <v>-5229.690729493776</v>
       </c>
       <c r="G6">
+        <v>-17483.98940416071</v>
+      </c>
+      <c r="H6">
+        <v>0.7008868737789755</v>
+      </c>
+      <c r="I6">
         <v>-0.7997691894010973</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>-124.516445940328</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>42</v>
       </c>
     </row>
@@ -577,7 +617,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA30</t>
+          <t>MA14</t>
         </is>
       </c>
       <c r="C7">
@@ -590,15 +630,21 @@
         <v>1622</v>
       </c>
       <c r="F7">
-        <v>-1234.970133993559</v>
+        <v>-1235.001672305568</v>
       </c>
       <c r="G7">
-        <v>-0.76138725893561</v>
+        <v>-4573.979857736539</v>
       </c>
       <c r="H7">
-        <v>-82.33134226623729</v>
+        <v>0.7299940728386338</v>
       </c>
       <c r="I7">
+        <v>-0.7614067030243946</v>
+      </c>
+      <c r="J7">
+        <v>-82.3334448203712</v>
+      </c>
+      <c r="K7">
         <v>15</v>
       </c>
     </row>
@@ -610,7 +656,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA7</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="C8">
@@ -623,15 +669,21 @@
         <v>1622</v>
       </c>
       <c r="F8">
-        <v>-1240.88397769479</v>
+        <v>-1296.951028951886</v>
       </c>
       <c r="G8">
-        <v>-0.7650332784801417</v>
+        <v>-4573.979857736539</v>
       </c>
       <c r="H8">
-        <v>-82.72559851298598</v>
+        <v>0.7164502098193126</v>
       </c>
       <c r="I8">
+        <v>-0.7995998945449359</v>
+      </c>
+      <c r="J8">
+        <v>-86.46340193012573</v>
+      </c>
+      <c r="K8">
         <v>15</v>
       </c>
     </row>
@@ -643,7 +695,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>t1daily</t>
         </is>
       </c>
       <c r="C9">
@@ -656,15 +708,21 @@
         <v>1622</v>
       </c>
       <c r="F9">
-        <v>-1811.862337998499</v>
+        <v>-1672.880141184919</v>
       </c>
       <c r="G9">
-        <v>-1.117054462391183</v>
+        <v>-4573.979857736539</v>
       </c>
       <c r="H9">
-        <v>-120.7908225332332</v>
+        <v>0.6342615854865716</v>
       </c>
       <c r="I9">
+        <v>-1.031368767684907</v>
+      </c>
+      <c r="J9">
+        <v>-111.5253427456612</v>
+      </c>
+      <c r="K9">
         <v>15</v>
       </c>
     </row>
@@ -676,7 +734,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>t1daily</t>
+          <t>MA7</t>
         </is>
       </c>
       <c r="C10">
@@ -689,15 +747,21 @@
         <v>1622</v>
       </c>
       <c r="F10">
-        <v>-1820.627494558094</v>
+        <v>-1796.257343036878</v>
       </c>
       <c r="G10">
-        <v>-1.122458381355175</v>
+        <v>-4573.979857736539</v>
       </c>
       <c r="H10">
-        <v>-121.3751663038729</v>
+        <v>0.6072878764433898</v>
       </c>
       <c r="I10">
+        <v>-1.107433627026435</v>
+      </c>
+      <c r="J10">
+        <v>-119.7504895357919</v>
+      </c>
+      <c r="K10">
         <v>15</v>
       </c>
     </row>
@@ -709,7 +773,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MA14</t>
+          <t>MA30</t>
         </is>
       </c>
       <c r="C11">
@@ -722,15 +786,21 @@
         <v>1622</v>
       </c>
       <c r="F11">
-        <v>-1838.425646263882</v>
+        <v>-1852.431996692168</v>
       </c>
       <c r="G11">
-        <v>-1.133431347881555</v>
+        <v>-4513.669384149356</v>
       </c>
       <c r="H11">
-        <v>-122.5617097509255</v>
+        <v>0.5895951078744603</v>
       </c>
       <c r="I11">
+        <v>-1.142066582424271</v>
+      </c>
+      <c r="J11">
+        <v>-123.4954664461445</v>
+      </c>
+      <c r="K11">
         <v>15</v>
       </c>
     </row>
@@ -755,15 +825,21 @@
         <v>295</v>
       </c>
       <c r="F12">
-        <v>-190.4049875629141</v>
+        <v>-190.4054051393595</v>
       </c>
       <c r="G12">
-        <v>-0.6454406358064884</v>
+        <v>-528.5690434222762</v>
       </c>
       <c r="H12">
-        <v>-63.46832918763802</v>
+        <v>0.639771932335349</v>
       </c>
       <c r="I12">
+        <v>-0.6454420513198628</v>
+      </c>
+      <c r="J12">
+        <v>-63.4684683797865</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
     </row>
@@ -788,15 +864,21 @@
         <v>295</v>
       </c>
       <c r="F13">
-        <v>-191.4016689192194</v>
+        <v>-191.4016836134232</v>
       </c>
       <c r="G13">
-        <v>-0.6488192166753201</v>
+        <v>-528.5690434222762</v>
       </c>
       <c r="H13">
-        <v>-63.80055630640648</v>
+        <v>0.6378870726628771</v>
       </c>
       <c r="I13">
+        <v>-0.6488192664861804</v>
+      </c>
+      <c r="J13">
+        <v>-63.8005612044744</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
     </row>
@@ -821,15 +903,21 @@
         <v>295</v>
       </c>
       <c r="F14">
-        <v>-191.5343164772643</v>
+        <v>-191.5343756049216</v>
       </c>
       <c r="G14">
-        <v>-0.6492688694144553</v>
+        <v>-528.5690434222762</v>
       </c>
       <c r="H14">
-        <v>-63.8447721590881</v>
+        <v>0.6376360326272381</v>
       </c>
       <c r="I14">
+        <v>-0.6492690698471919</v>
+      </c>
+      <c r="J14">
+        <v>-63.8447918683072</v>
+      </c>
+      <c r="K14">
         <v>3</v>
       </c>
     </row>
@@ -854,15 +942,21 @@
         <v>295</v>
       </c>
       <c r="F15">
-        <v>-192.0538901586485</v>
+        <v>-192.0539109677643</v>
       </c>
       <c r="G15">
-        <v>-0.6510301361310118</v>
+        <v>-528.5690434222762</v>
       </c>
       <c r="H15">
-        <v>-64.01796338621615</v>
+        <v>0.6366531234514021</v>
       </c>
       <c r="I15">
+        <v>-0.6510302066703874</v>
+      </c>
+      <c r="J15">
+        <v>-64.0179703225881</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
     </row>
@@ -887,15 +981,21 @@
         <v>295</v>
       </c>
       <c r="F16">
-        <v>-192.1066861113357</v>
+        <v>-192.1066701419385</v>
       </c>
       <c r="G16">
-        <v>-0.6512091054621549</v>
+        <v>-528.5690434222762</v>
       </c>
       <c r="H16">
-        <v>-64.0355620371119</v>
+        <v>0.636553308347149</v>
       </c>
       <c r="I16">
+        <v>-0.651209051328605</v>
+      </c>
+      <c r="J16">
+        <v>-64.03555671397947</v>
+      </c>
+      <c r="K16">
         <v>3</v>
       </c>
     </row>
@@ -923,12 +1023,18 @@
         <v>-355.1860719022056</v>
       </c>
       <c r="G17">
+        <v>-1497.551761209522</v>
+      </c>
+      <c r="H17">
+        <v>0.7628221734283603</v>
+      </c>
+      <c r="I17">
         <v>-0.6422894609443139</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>-59.19767865036759</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>6</v>
       </c>
     </row>
@@ -956,12 +1062,18 @@
         <v>-355.2324597082932</v>
       </c>
       <c r="G18">
+        <v>-1497.551761209522</v>
+      </c>
+      <c r="H18">
+        <v>0.7627911976669282</v>
+      </c>
+      <c r="I18">
         <v>-0.6423733448612897</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>-59.20540995138221</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>6</v>
       </c>
     </row>
@@ -989,12 +1101,18 @@
         <v>-355.2657970387257</v>
       </c>
       <c r="G19">
+        <v>-1497.551761209522</v>
+      </c>
+      <c r="H19">
+        <v>0.7627689364461169</v>
+      </c>
+      <c r="I19">
         <v>-0.6424336293647842</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>-59.21096617312094</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>6</v>
       </c>
     </row>
@@ -1022,12 +1140,18 @@
         <v>-355.3921682264648</v>
       </c>
       <c r="G20">
+        <v>-1497.551761209522</v>
+      </c>
+      <c r="H20">
+        <v>0.7626845512575628</v>
+      </c>
+      <c r="I20">
         <v>-0.6426621486916182</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>-59.23202803774414</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>6</v>
       </c>
     </row>
@@ -1055,12 +1179,18 @@
         <v>-368.5698187431812</v>
       </c>
       <c r="G21">
+        <v>-1490.846481961078</v>
+      </c>
+      <c r="H21">
+        <v>0.7527781544224728</v>
+      </c>
+      <c r="I21">
         <v>-0.666491534797796</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>-61.42830312386354</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>6</v>
       </c>
     </row>

--- a/Participation/R/output/OOS_results_sdm_variation.xlsx
+++ b/Participation/R/output/OOS_results_sdm_variation.xlsx
@@ -435,19 +435,19 @@
         <v>6539</v>
       </c>
       <c r="F2">
-        <v>-5478.434592314929</v>
+        <v>-5478.439771162735</v>
       </c>
       <c r="G2">
-        <v>-8029.230876852441</v>
+        <v>-8105.598028264107</v>
       </c>
       <c r="H2">
-        <v>0.3176887454925765</v>
+        <v>0.3241165239061334</v>
       </c>
       <c r="I2">
-        <v>-0.837809235711107</v>
+        <v>-0.8378100277049603</v>
       </c>
       <c r="J2">
-        <v>-130.4389188646412</v>
+        <v>-130.4390421705413</v>
       </c>
       <c r="K2">
         <v>42</v>
@@ -474,19 +474,19 @@
         <v>6539</v>
       </c>
       <c r="F3">
-        <v>-5484.074975644637</v>
+        <v>-5484.115127426273</v>
       </c>
       <c r="G3">
-        <v>-8029.230876852441</v>
+        <v>-8105.598028264107</v>
       </c>
       <c r="H3">
-        <v>0.3169862643438567</v>
+        <v>0.3234163465418295</v>
       </c>
       <c r="I3">
-        <v>-0.8386718115376414</v>
+        <v>-0.8386779518926859</v>
       </c>
       <c r="J3">
-        <v>-130.5732137058247</v>
+        <v>-130.5741697006256</v>
       </c>
       <c r="K3">
         <v>42</v>
@@ -513,19 +513,19 @@
         <v>6539</v>
       </c>
       <c r="F4">
-        <v>-5552.482626999037</v>
+        <v>-5552.614198047478</v>
       </c>
       <c r="G4">
-        <v>-8029.230876852441</v>
+        <v>-8105.598028264107</v>
       </c>
       <c r="H4">
-        <v>0.3084664381732563</v>
+        <v>0.3149655116518745</v>
       </c>
       <c r="I4">
-        <v>-0.8491332966813026</v>
+        <v>-0.8491534176552191</v>
       </c>
       <c r="J4">
-        <v>-132.2019673095009</v>
+        <v>-132.2050999535114</v>
       </c>
       <c r="K4">
         <v>42</v>
@@ -552,19 +552,19 @@
         <v>6539</v>
       </c>
       <c r="F5">
-        <v>-5579.497426436561</v>
+        <v>-5579.516138217598</v>
       </c>
       <c r="G5">
-        <v>-8029.230876852441</v>
+        <v>-8105.598028264107</v>
       </c>
       <c r="H5">
-        <v>0.3051018818599729</v>
+        <v>0.3116465782337214</v>
       </c>
       <c r="I5">
-        <v>-0.8532646316618078</v>
+        <v>-0.8532674932279551</v>
       </c>
       <c r="J5">
-        <v>-132.8451768199181</v>
+        <v>-132.8456223385143</v>
       </c>
       <c r="K5">
         <v>42</v>
@@ -591,19 +591,19 @@
         <v>6539</v>
       </c>
       <c r="F6">
-        <v>-5584.40395175912</v>
+        <v>-5584.460457508585</v>
       </c>
       <c r="G6">
-        <v>-8029.230876852441</v>
+        <v>-8105.598028264107</v>
       </c>
       <c r="H6">
-        <v>0.3044907990056108</v>
+        <v>0.3110365900164739</v>
       </c>
       <c r="I6">
-        <v>-0.8540149796236611</v>
+        <v>-0.8540236209678216</v>
       </c>
       <c r="J6">
-        <v>-132.9619988514076</v>
+        <v>-132.9633442263949</v>
       </c>
       <c r="K6">
         <v>42</v>
@@ -630,19 +630,19 @@
         <v>1622</v>
       </c>
       <c r="F7">
-        <v>-1098.699869560293</v>
+        <v>-1143.050362323978</v>
       </c>
       <c r="G7">
-        <v>-1898.030764787741</v>
+        <v>-1898.031395723546</v>
       </c>
       <c r="H7">
-        <v>0.4211369541825303</v>
+        <v>0.397770571709517</v>
       </c>
       <c r="I7">
-        <v>-0.6773735324046197</v>
+        <v>-0.7047166228877795</v>
       </c>
       <c r="J7">
-        <v>-73.24665797068621</v>
+        <v>-76.20335748826523</v>
       </c>
       <c r="K7">
         <v>15</v>
@@ -656,7 +656,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA30</t>
+          <t>t1daily</t>
         </is>
       </c>
       <c r="C8">
@@ -669,19 +669,19 @@
         <v>1622</v>
       </c>
       <c r="F8">
-        <v>-1099.798565220878</v>
+        <v>-1146.960707542177</v>
       </c>
       <c r="G8">
-        <v>-1898.030764787741</v>
+        <v>-1898.031395723546</v>
       </c>
       <c r="H8">
-        <v>0.4205580933542615</v>
+        <v>0.395710360678757</v>
       </c>
       <c r="I8">
-        <v>-0.6780509033420947</v>
+        <v>-0.7071274399150289</v>
       </c>
       <c r="J8">
-        <v>-73.31990434805851</v>
+        <v>-76.46404716947846</v>
       </c>
       <c r="K8">
         <v>15</v>
@@ -695,7 +695,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>t1daily</t>
+          <t>MA7</t>
         </is>
       </c>
       <c r="C9">
@@ -708,19 +708,19 @@
         <v>1622</v>
       </c>
       <c r="F9">
-        <v>-1099.868065291625</v>
+        <v>-1152.624807999824</v>
       </c>
       <c r="G9">
-        <v>-1898.030764787741</v>
+        <v>-1898.031395723546</v>
       </c>
       <c r="H9">
-        <v>0.4205214764184156</v>
+        <v>0.3927261632253274</v>
       </c>
       <c r="I9">
-        <v>-0.6780937517211008</v>
+        <v>-0.7106194870529128</v>
       </c>
       <c r="J9">
-        <v>-73.32453768610837</v>
+        <v>-76.84165386665497</v>
       </c>
       <c r="K9">
         <v>15</v>
@@ -734,7 +734,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MA7</t>
+          <t>MA30</t>
         </is>
       </c>
       <c r="C10">
@@ -747,19 +747,19 @@
         <v>1622</v>
       </c>
       <c r="F10">
-        <v>-1103.477708887068</v>
+        <v>-1153.424992636934</v>
       </c>
       <c r="G10">
-        <v>-1898.030764787741</v>
+        <v>-1898.031395723546</v>
       </c>
       <c r="H10">
-        <v>0.4186196929160571</v>
+        <v>0.3923045766072598</v>
       </c>
       <c r="I10">
-        <v>-0.6803191793385128</v>
+        <v>-0.7111128191349776</v>
       </c>
       <c r="J10">
-        <v>-73.56518059247118</v>
+        <v>-76.89499950912891</v>
       </c>
       <c r="K10">
         <v>15</v>
@@ -786,19 +786,19 @@
         <v>1622</v>
       </c>
       <c r="F11">
-        <v>-1105.170379910725</v>
+        <v>-1154.737443226489</v>
       </c>
       <c r="G11">
-        <v>-1898.030764787741</v>
+        <v>-1898.031395723546</v>
       </c>
       <c r="H11">
-        <v>0.4177278891291744</v>
+        <v>0.3916130966915362</v>
       </c>
       <c r="I11">
-        <v>-0.6813627496366987</v>
+        <v>-0.7119219748622004</v>
       </c>
       <c r="J11">
-        <v>-73.67802532738169</v>
+        <v>-76.98249621509927</v>
       </c>
       <c r="K11">
         <v>15</v>
@@ -825,19 +825,19 @@
         <v>295</v>
       </c>
       <c r="F12">
-        <v>-186.9347419232317</v>
+        <v>-191.2748603893207</v>
       </c>
       <c r="G12">
-        <v>-247.7524064755864</v>
+        <v>-246.2937086936206</v>
       </c>
       <c r="H12">
-        <v>0.2454775936085516</v>
+        <v>0.223387144544326</v>
       </c>
       <c r="I12">
-        <v>-0.6336770912651922</v>
+        <v>-0.6483893572519345</v>
       </c>
       <c r="J12">
-        <v>-62.31158064107724</v>
+        <v>-63.75828679644023</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -864,19 +864,19 @@
         <v>295</v>
       </c>
       <c r="F13">
-        <v>-187.6642355539485</v>
+        <v>-191.7961886782758</v>
       </c>
       <c r="G13">
-        <v>-247.7524064755864</v>
+        <v>-246.2937086936206</v>
       </c>
       <c r="H13">
-        <v>0.2425331474128748</v>
+        <v>0.2212704510578366</v>
       </c>
       <c r="I13">
-        <v>-0.636149951030334</v>
+        <v>-0.6501565717907654</v>
       </c>
       <c r="J13">
-        <v>-62.55474518464952</v>
+        <v>-63.93206289275859</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MA30</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="C14">
@@ -903,19 +903,19 @@
         <v>295</v>
       </c>
       <c r="F14">
-        <v>-187.7558054230765</v>
+        <v>-192.1332801533161</v>
       </c>
       <c r="G14">
-        <v>-247.7524064755864</v>
+        <v>-246.2937086936206</v>
       </c>
       <c r="H14">
-        <v>0.2421635450730607</v>
+        <v>0.2199017945995442</v>
       </c>
       <c r="I14">
-        <v>-0.636460357366361</v>
+        <v>-0.6512992547570037</v>
       </c>
       <c r="J14">
-        <v>-62.58526847435883</v>
+        <v>-64.04442671777203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -929,7 +929,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>t1daily</t>
         </is>
       </c>
       <c r="C15">
@@ -942,19 +942,19 @@
         <v>295</v>
       </c>
       <c r="F15">
-        <v>-187.9992687353627</v>
+        <v>-192.2377928847899</v>
       </c>
       <c r="G15">
-        <v>-247.7524064755864</v>
+        <v>-246.2937086936206</v>
       </c>
       <c r="H15">
-        <v>0.2411808570913389</v>
+        <v>0.2194774527354008</v>
       </c>
       <c r="I15">
-        <v>-0.6372856567300431</v>
+        <v>-0.6516535352026778</v>
       </c>
       <c r="J15">
-        <v>-62.66642291178757</v>
+        <v>-64.07926429492997</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -968,7 +968,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>t1daily</t>
+          <t>MA30</t>
         </is>
       </c>
       <c r="C16">
@@ -981,19 +981,19 @@
         <v>295</v>
       </c>
       <c r="F16">
-        <v>-188.2932025052793</v>
+        <v>-192.6805746545597</v>
       </c>
       <c r="G16">
-        <v>-247.7524064755864</v>
+        <v>-246.2937086936206</v>
       </c>
       <c r="H16">
-        <v>0.2399944558204169</v>
+        <v>0.2176796732788393</v>
       </c>
       <c r="I16">
-        <v>-0.6382820423907773</v>
+        <v>-0.6531544903544396</v>
       </c>
       <c r="J16">
-        <v>-62.76440083509311</v>
+        <v>-64.22685821818656</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1020,19 +1020,19 @@
         <v>553</v>
       </c>
       <c r="F17">
-        <v>-347.3031730944663</v>
+        <v>-357.0542354818692</v>
       </c>
       <c r="G17">
-        <v>-637.7077965074861</v>
+        <v>-637.7277222043804</v>
       </c>
       <c r="H17">
-        <v>0.4553882279681533</v>
+        <v>0.4401149220114353</v>
       </c>
       <c r="I17">
-        <v>-0.6280346710569011</v>
+        <v>-0.6456676952655863</v>
       </c>
       <c r="J17">
-        <v>-57.88386218241106</v>
+        <v>-59.50903924697821</v>
       </c>
       <c r="K17">
         <v>6</v>
@@ -1059,19 +1059,19 @@
         <v>553</v>
       </c>
       <c r="F18">
-        <v>-348.6539062659666</v>
+        <v>-357.7859316936396</v>
       </c>
       <c r="G18">
-        <v>-637.7077965074861</v>
+        <v>-637.7277222043804</v>
       </c>
       <c r="H18">
-        <v>0.453270121244513</v>
+        <v>0.4389675730938736</v>
       </c>
       <c r="I18">
-        <v>-0.6304772265207352</v>
+        <v>-0.6469908348890407</v>
       </c>
       <c r="J18">
-        <v>-58.1089843776611</v>
+        <v>-59.63098861560659</v>
       </c>
       <c r="K18">
         <v>6</v>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MA30</t>
+          <t>MA7</t>
         </is>
       </c>
       <c r="C19">
@@ -1098,19 +1098,19 @@
         <v>553</v>
       </c>
       <c r="F19">
-        <v>-349.3917107317833</v>
+        <v>-361.5521927449282</v>
       </c>
       <c r="G19">
-        <v>-637.7077965074861</v>
+        <v>-637.7277222043804</v>
       </c>
       <c r="H19">
-        <v>0.4521131580242774</v>
+        <v>0.4330618222222161</v>
       </c>
       <c r="I19">
-        <v>-0.631811411811543</v>
+        <v>-0.6538014335351323</v>
       </c>
       <c r="J19">
-        <v>-58.23195178863055</v>
+        <v>-60.25869879082136</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MA14</t>
+          <t>MA30</t>
         </is>
       </c>
       <c r="C20">
@@ -1137,19 +1137,19 @@
         <v>553</v>
       </c>
       <c r="F20">
-        <v>-350.2796431397937</v>
+        <v>-362.8079544923886</v>
       </c>
       <c r="G20">
-        <v>-637.7077965074861</v>
+        <v>-637.7277222043804</v>
       </c>
       <c r="H20">
-        <v>0.4507207767285283</v>
+        <v>0.4310927032648032</v>
       </c>
       <c r="I20">
-        <v>-0.6334170762021587</v>
+        <v>-0.6560722504383157</v>
       </c>
       <c r="J20">
-        <v>-58.37994052329896</v>
+        <v>-60.46799241539811</v>
       </c>
       <c r="K20">
         <v>6</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MA7</t>
+          <t>MA14</t>
         </is>
       </c>
       <c r="C21">
@@ -1176,19 +1176,19 @@
         <v>553</v>
       </c>
       <c r="F21">
-        <v>-350.3775532001334</v>
+        <v>-363.7311743569401</v>
       </c>
       <c r="G21">
-        <v>-637.7077965074861</v>
+        <v>-637.7277222043804</v>
       </c>
       <c r="H21">
-        <v>0.4505672423654925</v>
+        <v>0.4296450323663824</v>
       </c>
       <c r="I21">
-        <v>-0.6335941287525017</v>
+        <v>-0.6577417257810851</v>
       </c>
       <c r="J21">
-        <v>-58.39625886668891</v>
+        <v>-60.62186239282335</v>
       </c>
       <c r="K21">
         <v>6</v>
